--- a/201711 DIARY/20171113 FOOD DIARY.xlsx
+++ b/201711 DIARY/20171113 FOOD DIARY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoledi_rebecca/Downloads/drive-download-20171115T075418Z-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoledi_rebecca/Desktop/Eat-Diary/201711 DIARY/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -521,6 +521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,11 +534,6 @@
     <xf numFmtId="176" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -814,8 +814,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -881,10 +881,10 @@
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9" t="s">
         <v>12</v>
@@ -919,16 +919,16 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>13.6</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="28">
         <v>6.4</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="28">
         <v>6.4</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
         <v>14</v>
@@ -972,7 +972,7 @@
       <c r="D4" s="13">
         <v>13.7</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="14"/>
@@ -997,10 +997,10 @@
     </row>
     <row r="5" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A5" s="15"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="14"/>
@@ -1027,10 +1027,10 @@
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
         <v>17</v>
@@ -1038,8 +1038,7 @@
       <c r="H6" s="17">
         <v>0.23</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17">
+      <c r="I6" s="17">
         <v>3.1972999999999998</v>
       </c>
       <c r="K6" s="8"/>
@@ -1063,10 +1062,10 @@
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="17"/>
@@ -1093,16 +1092,16 @@
       <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="28">
         <v>19.600000000000001</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="28">
         <v>2</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>0</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="17"/>
@@ -1129,17 +1128,17 @@
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1170,7 +1169,7 @@
       <c r="D10" s="19">
         <v>0.38</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
         <v>23</v>
@@ -1203,10 +1202,10 @@
     </row>
     <row r="11" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
         <v>24</v>
@@ -1239,10 +1238,10 @@
     </row>
     <row r="12" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="17"/>
@@ -1267,10 +1266,10 @@
     </row>
     <row r="13" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="17"/>
@@ -1295,10 +1294,10 @@
     </row>
     <row r="14" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="17"/>
@@ -1323,17 +1322,17 @@
     </row>
     <row r="15" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1353,10 +1352,10 @@
     </row>
     <row r="16" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9" t="s">
         <v>26</v>
@@ -1389,10 +1388,10 @@
     </row>
     <row r="17" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
         <v>27</v>
@@ -1425,10 +1424,10 @@
     </row>
     <row r="18" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -1453,10 +1452,10 @@
     </row>
     <row r="19" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
       <c r="H19" s="17"/>
@@ -1481,10 +1480,10 @@
     </row>
     <row r="20" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="17"/>
@@ -1509,10 +1508,10 @@
     </row>
     <row r="21" spans="1:26" ht="26" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
       <c r="H21" s="17"/>
